--- a/www/IndicatorsPerCountry/Romania_GDPperCapita_TerritorialRef_1946_2012_CCode_642.xlsx
+++ b/www/IndicatorsPerCountry/Romania_GDPperCapita_TerritorialRef_1946_2012_CCode_642.xlsx
@@ -303,13 +303,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Romania_GDPperCapita_TerritorialRef_1946_2012_CCode_642.xlsx
+++ b/www/IndicatorsPerCountry/Romania_GDPperCapita_TerritorialRef_1946_2012_CCode_642.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="156">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,244 +36,415 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>931</t>
+    <t>344</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>644</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>1415</t>
-  </si>
-  <si>
-    <t>1660</t>
-  </si>
-  <si>
-    <t>1741</t>
-  </si>
-  <si>
-    <t>1258</t>
-  </si>
-  <si>
-    <t>1241</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
-    <t>1229</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
-    <t>1184</t>
-  </si>
-  <si>
-    <t>1182</t>
-  </si>
-  <si>
-    <t>1196</t>
-  </si>
-  <si>
-    <t>1194</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>1256</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>1411</t>
-  </si>
-  <si>
-    <t>1496</t>
-  </si>
-  <si>
-    <t>1578</t>
-  </si>
-  <si>
-    <t>1623</t>
-  </si>
-  <si>
-    <t>1672</t>
-  </si>
-  <si>
-    <t>1724</t>
-  </si>
-  <si>
-    <t>1783</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2137</t>
-  </si>
-  <si>
-    <t>2258</t>
-  </si>
-  <si>
-    <t>2386</t>
-  </si>
-  <si>
-    <t>2643</t>
-  </si>
-  <si>
-    <t>2743</t>
-  </si>
-  <si>
-    <t>2739</t>
-  </si>
-  <si>
-    <t>2824</t>
-  </si>
-  <si>
-    <t>2853</t>
-  </si>
-  <si>
-    <t>3221</t>
-  </si>
-  <si>
-    <t>3396</t>
-  </si>
-  <si>
-    <t>3477</t>
-  </si>
-  <si>
-    <t>3637</t>
-  </si>
-  <si>
-    <t>3761</t>
-  </si>
-  <si>
-    <t>3917</t>
-  </si>
-  <si>
-    <t>3966</t>
-  </si>
-  <si>
-    <t>4063</t>
-  </si>
-  <si>
-    <t>4148</t>
-  </si>
-  <si>
-    <t>4135</t>
-  </si>
-  <si>
-    <t>4087</t>
-  </si>
-  <si>
-    <t>4072</t>
-  </si>
-  <si>
-    <t>4027</t>
-  </si>
-  <si>
-    <t>4178</t>
-  </si>
-  <si>
-    <t>4159</t>
-  </si>
-  <si>
-    <t>4215</t>
-  </si>
-  <si>
-    <t>4110</t>
-  </si>
-  <si>
-    <t>4085</t>
-  </si>
-  <si>
-    <t>3941</t>
-  </si>
-  <si>
-    <t>3510.76600797</t>
-  </si>
-  <si>
-    <t>3065.41394822</t>
-  </si>
-  <si>
-    <t>2802.63657152</t>
-  </si>
-  <si>
-    <t>2851.97111803</t>
-  </si>
-  <si>
-    <t>2971.03464476</t>
-  </si>
-  <si>
-    <t>3192.36484024</t>
-  </si>
-  <si>
-    <t>3330.90418509</t>
-  </si>
-  <si>
-    <t>3141.08993188</t>
-  </si>
-  <si>
-    <t>2998.60648259</t>
-  </si>
-  <si>
-    <t>2971.42900363</t>
-  </si>
-  <si>
-    <t>3046.9560995</t>
-  </si>
-  <si>
-    <t>3224.56336017</t>
-  </si>
-  <si>
-    <t>3395.812347</t>
-  </si>
-  <si>
-    <t>3583.42554119</t>
-  </si>
-  <si>
-    <t>3897.63628755</t>
-  </si>
-  <si>
-    <t>4068.76149922</t>
-  </si>
-  <si>
-    <t>4398.41709976</t>
-  </si>
-  <si>
-    <t>4685.64946859</t>
-  </si>
-  <si>
-    <t>5040.32535523</t>
-  </si>
-  <si>
-    <t>4719.35396528</t>
-  </si>
-  <si>
-    <t>4652.63706278</t>
+    <t>465</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1062.5</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>2260</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>2721</t>
+  </si>
+  <si>
+    <t>2860</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>3258</t>
+  </si>
+  <si>
+    <t>3462</t>
+  </si>
+  <si>
+    <t>3867</t>
+  </si>
+  <si>
+    <t>4318</t>
+  </si>
+  <si>
+    <t>4317</t>
+  </si>
+  <si>
+    <t>4369</t>
+  </si>
+  <si>
+    <t>4809</t>
+  </si>
+  <si>
+    <t>5048</t>
+  </si>
+  <si>
+    <t>5464</t>
+  </si>
+  <si>
+    <t>5493</t>
+  </si>
+  <si>
+    <t>5482</t>
+  </si>
+  <si>
+    <t>5448</t>
+  </si>
+  <si>
+    <t>5638</t>
+  </si>
+  <si>
+    <t>5960</t>
+  </si>
+  <si>
+    <t>6295</t>
+  </si>
+  <si>
+    <t>6260</t>
+  </si>
+  <si>
+    <t>6378</t>
+  </si>
+  <si>
+    <t>6400</t>
+  </si>
+  <si>
+    <t>6338</t>
+  </si>
+  <si>
+    <t>5942</t>
+  </si>
+  <si>
+    <t>5596</t>
+  </si>
+  <si>
+    <t>5033.14101947764</t>
+  </si>
+  <si>
+    <t>4818.30439775258</t>
+  </si>
+  <si>
+    <t>5055.91717026104</t>
+  </si>
+  <si>
+    <t>5427.07056828356</t>
+  </si>
+  <si>
+    <t>6014.68971397048</t>
+  </si>
+  <si>
+    <t>6476.47447539912</t>
+  </si>
+  <si>
+    <t>6446.41775277613</t>
+  </si>
+  <si>
+    <t>6407.46688174945</t>
+  </si>
+  <si>
+    <t>6613.93288019736</t>
+  </si>
+  <si>
+    <t>7089.94612573642</t>
+  </si>
+  <si>
+    <t>7860.44322611657</t>
+  </si>
+  <si>
+    <t>8673.61874341077</t>
+  </si>
+  <si>
+    <t>9369.2331638451</t>
+  </si>
+  <si>
+    <t>10531.1718022169</t>
+  </si>
+  <si>
+    <t>11313.8224191907</t>
+  </si>
+  <si>
+    <t>12823.231839342</t>
+  </si>
+  <si>
+    <t>14418.8299767795</t>
+  </si>
+  <si>
+    <t>16347.3435343349</t>
+  </si>
+  <si>
+    <t>15866.126776608</t>
+  </si>
+  <si>
+    <t>16377.3280225609</t>
+  </si>
+  <si>
+    <t>17174</t>
+  </si>
+  <si>
+    <t>17979</t>
+  </si>
+  <si>
+    <t>18515</t>
+  </si>
+  <si>
+    <t>19320</t>
+  </si>
+  <si>
+    <t>17782</t>
   </si>
   <si>
     <t>Description</t>
@@ -388,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1870.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -405,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1871.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -422,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1872.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -439,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1873.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -456,10 +627,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1874.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -473,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1875.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -490,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1876.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -507,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1877.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -524,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1878.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -541,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1879.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -558,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1880.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -575,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1881.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -592,10 +763,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1882.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -609,10 +780,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1883.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -626,10 +797,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1884.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -643,10 +814,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1885.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -660,10 +831,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1886.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -677,10 +848,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1887.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -694,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1888.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -711,10 +882,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1889.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -728,10 +899,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1890.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -745,10 +916,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1891.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -762,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1892.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -779,10 +950,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1893.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -796,10 +967,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1894.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -813,10 +984,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1895.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -830,10 +1001,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1896.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -847,10 +1018,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1897.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -864,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1898.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -881,10 +1052,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1899.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -898,10 +1069,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1900.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -915,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1901.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -932,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1902.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -949,10 +1120,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1903.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -966,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1904.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -983,10 +1154,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1905.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -1000,10 +1171,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1906.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -1017,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1907.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -1034,10 +1205,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1908.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -1051,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1909.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -1068,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1910.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -1085,10 +1256,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1911.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
@@ -1102,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1912.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
@@ -1119,10 +1290,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1913.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
@@ -1136,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1914.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
@@ -1153,10 +1324,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1915.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
@@ -1170,10 +1341,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1916.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
@@ -1187,10 +1358,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1917.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
@@ -1204,10 +1375,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1918.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
@@ -1221,10 +1392,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1919.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
@@ -1238,10 +1409,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1920.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
@@ -1255,10 +1426,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1921.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
@@ -1272,10 +1443,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1922.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
@@ -1289,10 +1460,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1923.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -1306,10 +1477,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1924.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -1323,10 +1494,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1925.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -1340,10 +1511,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1926.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -1357,10 +1528,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1927.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
@@ -1374,10 +1545,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1928.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
@@ -1391,10 +1562,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1929.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
@@ -1408,10 +1579,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1930.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -1425,10 +1596,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1931.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -1442,10 +1613,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1932.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -1459,10 +1630,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1933.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -1476,10 +1647,10 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1934.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
@@ -1493,10 +1664,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1935.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -1510,10 +1681,10 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1936.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
@@ -1527,10 +1698,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1937.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70">
@@ -1544,10 +1715,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1938.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
@@ -1561,10 +1732,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1939.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72">
@@ -1578,10 +1749,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1940.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -1595,10 +1766,10 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1941.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -1612,10 +1783,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1942.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -1629,10 +1800,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1943.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76">
@@ -1646,10 +1817,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1944.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77">
@@ -1663,10 +1834,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1945.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78">
@@ -1680,10 +1851,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1946.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79">
@@ -1697,10 +1868,10 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1947.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
@@ -1714,10 +1885,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1948.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E80" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81">
@@ -1731,10 +1902,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1949.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82">
@@ -1748,10 +1919,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1950.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83">
@@ -1765,10 +1936,10 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1951.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
@@ -1782,10 +1953,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1952.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -1799,10 +1970,10 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1953.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86">
@@ -1816,10 +1987,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1954.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -1833,10 +2004,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1955.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88">
@@ -1850,10 +2021,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1956.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89">
@@ -1867,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1957.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
@@ -1884,10 +2055,10 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1958.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
@@ -1901,10 +2072,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1959.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
@@ -1918,10 +2089,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1960.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93">
@@ -1935,10 +2106,10 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1961.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
@@ -1952,10 +2123,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1962.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
@@ -1969,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1963.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
@@ -1986,10 +2157,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1964.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
@@ -2003,10 +2174,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1965.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98">
@@ -2020,10 +2191,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1966.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99">
@@ -2037,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1967.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100">
@@ -2054,10 +2225,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1968.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101">
@@ -2071,10 +2242,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1969.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102">
@@ -2088,10 +2259,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1970.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
@@ -2105,10 +2276,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1971.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104">
@@ -2122,10 +2293,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1972.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105">
@@ -2139,10 +2310,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1973.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106">
@@ -2156,10 +2327,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1974.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E106" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107">
@@ -2173,10 +2344,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1975.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E107" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108">
@@ -2190,10 +2361,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1976.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109">
@@ -2207,10 +2378,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1977.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110">
@@ -2224,10 +2395,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1978.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111">
@@ -2241,10 +2412,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1979.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112">
@@ -2258,10 +2429,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1980.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E112" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
@@ -2275,10 +2446,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1981.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114">
@@ -2292,10 +2463,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1982.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E114" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115">
@@ -2309,10 +2480,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1983.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E115" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116">
@@ -2326,10 +2497,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1984.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E116" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117">
@@ -2343,10 +2514,10 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1985.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E117" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118">
@@ -2360,10 +2531,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1986.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E118" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119">
@@ -2377,10 +2548,10 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1987.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E119" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120">
@@ -2394,10 +2565,10 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1988.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E120" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121">
@@ -2411,10 +2582,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1989.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E121" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122">
@@ -2428,10 +2599,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1990.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E122" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
@@ -2445,10 +2616,10 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1991.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E123" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124">
@@ -2462,10 +2633,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1992.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E124" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125">
@@ -2479,10 +2650,10 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1993.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E125" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
@@ -2496,10 +2667,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1994.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E126" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
@@ -2513,10 +2684,10 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1995.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E127" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
@@ -2530,10 +2701,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1996.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E128" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
@@ -2547,10 +2718,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1997.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E129" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130">
@@ -2564,10 +2735,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1998.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E130" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131">
@@ -2581,10 +2752,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1999.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E131" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
@@ -2598,10 +2769,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>2000.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E132" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
@@ -2615,10 +2786,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>2001.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E133" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
@@ -2632,10 +2803,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>2002.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E134" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
@@ -2649,10 +2820,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>2003.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E135" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136">
@@ -2666,10 +2837,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>2004.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E136" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
@@ -2683,10 +2854,10 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>2005.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E137" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138">
@@ -2700,10 +2871,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>2006.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E138" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
@@ -2717,10 +2888,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>2007.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E139" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140">
@@ -2734,10 +2905,10 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>2008.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141">
@@ -2751,10 +2922,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>2009.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E141" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142">
@@ -2768,10 +2939,248 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E142" t="s">
-        <v>86</v>
+      <c r="E150" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2789,50 +3198,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
